--- a/price.xlsx
+++ b/price.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t xml:space="preserve"> Recursos</t>
   </si>
@@ -109,6 +109,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Atribuido</t>
+  </si>
+  <si>
+    <t>CHECKSUM</t>
   </si>
 </sst>
 </file>
@@ -635,15 +638,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -663,6 +660,21 @@
     </xf>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -991,7 +1003,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1003,306 +1015,333 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="A1" s="9"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="3" t="s">
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="8" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="3" t="s">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K4" s="4"/>
+      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="4">
         <v>0</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="4">
         <v>120</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="4">
         <v>168</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="4">
         <v>100</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="4">
         <v>0</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="4">
         <v>0</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="4">
         <v>0</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="4">
         <v>0</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="11">
         <v>388</v>
       </c>
+      <c r="L5" s="10">
+        <f>SUM(C5:J5)</f>
+        <v>388</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>64</v>
       </c>
-      <c r="D6" s="8">
-        <v>128</v>
-      </c>
-      <c r="E6" s="8">
+      <c r="D6" s="6">
+        <v>160</v>
+      </c>
+      <c r="E6" s="6">
         <v>168</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="6">
         <v>117.6</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="6">
         <v>30.4</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="6">
         <v>42.4</v>
       </c>
-      <c r="I6" s="8">
+      <c r="I6" s="6">
         <v>8.8000000000000007</v>
       </c>
-      <c r="J6" s="8">
+      <c r="J6" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K6" s="8">
-        <v>563.6</v>
+      <c r="K6" s="12">
+        <v>595.6</v>
+      </c>
+      <c r="L6" s="10">
+        <f t="shared" ref="L6:L10" si="0">SUM(C6:J6)</f>
+        <v>595.59999999999991</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="4">
         <v>16</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="4">
         <v>136</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="4">
         <v>168</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="4">
         <v>102</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="4">
         <v>0</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="4">
         <v>16</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="4">
         <v>0</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="4">
         <v>0</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="11">
         <v>438</v>
       </c>
+      <c r="L7" s="10">
+        <f t="shared" si="0"/>
+        <v>438</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>0</v>
       </c>
-      <c r="D8" s="8">
-        <v>136</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="D8" s="6">
         <v>168</v>
       </c>
-      <c r="F8" s="8">
+      <c r="E8" s="6">
+        <v>168</v>
+      </c>
+      <c r="F8" s="6">
         <v>96</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="6">
         <v>4.8</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="6">
         <v>8.4</v>
       </c>
-      <c r="I8" s="8">
+      <c r="I8" s="6">
         <v>8.8000000000000007</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K8" s="8">
-        <v>426.4</v>
+      <c r="K8" s="12">
+        <v>458.4</v>
+      </c>
+      <c r="L8" s="10">
+        <f t="shared" si="0"/>
+        <v>458.4</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="6">
-        <v>52</v>
-      </c>
-      <c r="D9" s="6">
-        <v>94</v>
-      </c>
-      <c r="E9" s="6">
+      <c r="C9" s="4">
+        <v>64</v>
+      </c>
+      <c r="D9" s="4">
+        <v>112</v>
+      </c>
+      <c r="E9" s="4">
         <v>92</v>
       </c>
-      <c r="F9" s="6">
-        <v>99.6</v>
-      </c>
-      <c r="G9" s="6">
-        <v>118.4</v>
-      </c>
-      <c r="H9" s="6">
-        <v>83.6</v>
-      </c>
-      <c r="I9" s="6">
+      <c r="F9" s="4">
+        <v>105.6</v>
+      </c>
+      <c r="G9" s="4">
+        <v>151.19999999999999</v>
+      </c>
+      <c r="H9" s="4">
+        <v>102.8</v>
+      </c>
+      <c r="I9" s="4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J9" s="4">
         <v>8.8000000000000007</v>
       </c>
-      <c r="J9" s="6">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="K9" s="6">
-        <v>552.79999999999995</v>
+      <c r="K9" s="11">
+        <v>654</v>
+      </c>
+      <c r="L9" s="10">
+        <f t="shared" si="0"/>
+        <v>653.99999999999989</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>0</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>120</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="6">
         <v>168</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="6">
         <v>104</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="6">
         <v>0</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="6">
         <v>0</v>
       </c>
-      <c r="I10" s="8">
+      <c r="I10" s="6">
         <v>0</v>
       </c>
-      <c r="J10" s="8">
+      <c r="J10" s="6">
         <v>0</v>
       </c>
-      <c r="K10" s="8">
+      <c r="K10" s="12">
+        <v>392</v>
+      </c>
+      <c r="L10" s="10">
+        <f t="shared" si="0"/>
         <v>392</v>
       </c>
     </row>
@@ -1312,39 +1351,39 @@
       </c>
       <c r="C11" s="1">
         <f>C5*20+C6*25+C7*25+C8*20+C9*60+C10*20</f>
-        <v>5120</v>
+        <v>5840</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" ref="D11:K11" si="0">D5*20+D6*25+D7*25+D8*20+D9*60+D10*20</f>
-        <v>19760</v>
+        <f t="shared" ref="D11:J11" si="1">D5*20+D6*25+D7*25+D8*20+D9*60+D10*20</f>
+        <v>22280</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24000</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="0"/>
-        <v>17466</v>
+        <f t="shared" si="1"/>
+        <v>17826</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="0"/>
-        <v>7960</v>
+        <f t="shared" si="1"/>
+        <v>9928</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="0"/>
-        <v>6644</v>
+        <f t="shared" si="1"/>
+        <v>7796</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="0"/>
-        <v>924</v>
+        <f t="shared" si="1"/>
+        <v>1452</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="0"/>
-        <v>462</v>
+        <f t="shared" si="1"/>
+        <v>726</v>
       </c>
       <c r="K11" s="1">
         <f>K5*20+K6*25+K7*25+K8*20+K9*60+K10*20</f>
-        <v>82336</v>
+        <v>89848</v>
       </c>
       <c r="L11" s="1" t="s">
         <v>28</v>
@@ -1364,39 +1403,39 @@
       </c>
       <c r="C13" s="1">
         <f>C11+C12</f>
-        <v>55120</v>
+        <v>55840</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13:J13" si="1">D11+D12</f>
-        <v>19760</v>
+        <f t="shared" ref="D13:J13" si="2">D11+D12</f>
+        <v>22280</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24000</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="1"/>
-        <v>17466</v>
+        <f t="shared" si="2"/>
+        <v>17826</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="1"/>
-        <v>7960</v>
+        <f t="shared" si="2"/>
+        <v>9928</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="1"/>
-        <v>6644</v>
+        <f t="shared" si="2"/>
+        <v>7796</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="1"/>
-        <v>924</v>
+        <f t="shared" si="2"/>
+        <v>1452</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="1"/>
-        <v>462</v>
+        <f t="shared" si="2"/>
+        <v>726</v>
       </c>
       <c r="K13" s="1">
         <f>SUM(C13:J13)</f>
-        <v>132336</v>
+        <v>139848</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>28</v>
@@ -1406,12 +1445,12 @@
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="7">
         <v>0.2</v>
       </c>
       <c r="K14" s="1">
         <f>K13*1.2</f>
-        <v>158803.19999999998</v>
+        <v>167817.60000000001</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>28</v>
@@ -1421,16 +1460,16 @@
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="7">
         <v>0.2</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="7">
         <v>0.2</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="7">
         <v>0.4</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="7">
         <v>0.2</v>
       </c>
     </row>

--- a/price.xlsx
+++ b/price.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t xml:space="preserve"> Recursos</t>
   </si>
@@ -84,12 +84,6 @@
     <t>Licenses</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>Invoices %</t>
   </si>
   <si>
@@ -111,14 +105,26 @@
     <t xml:space="preserve"> Atribuido</t>
   </si>
   <si>
-    <t>CHECKSUM</t>
+    <t>h</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Total (internal)</t>
+  </si>
+  <si>
+    <t>Price (client)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +272,12 @@
       <b/>
       <sz val="15"/>
       <name val="arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="36">
@@ -638,7 +650,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -664,9 +676,6 @@
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -675,6 +684,15 @@
     </xf>
     <xf numFmtId="2" fontId="18" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1003,57 +1021,56 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" style="1" customWidth="1"/>
-    <col min="3" max="11" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="10" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19" style="1" customWidth="1"/>
     <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9"/>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="2" t="s">
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="8" t="s">
         <v>3</v>
       </c>
+      <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1079,37 +1096,41 @@
         <v>11</v>
       </c>
       <c r="K3" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="8"/>
     </row>
     <row r="5" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1142,12 +1163,11 @@
       <c r="J5" s="4">
         <v>0</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="10">
         <v>388</v>
       </c>
-      <c r="L5" s="10">
-        <f>SUM(C5:J5)</f>
-        <v>388</v>
+      <c r="L5" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1155,7 +1175,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="6">
         <v>64</v>
@@ -1181,12 +1201,11 @@
       <c r="J6" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K6" s="12">
+      <c r="K6" s="11">
         <v>595.6</v>
       </c>
-      <c r="L6" s="10">
-        <f t="shared" ref="L6:L10" si="0">SUM(C6:J6)</f>
-        <v>595.59999999999991</v>
+      <c r="L6" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1194,7 +1213,7 @@
         <v>15</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" s="4">
         <v>16</v>
@@ -1220,12 +1239,11 @@
       <c r="J7" s="4">
         <v>0</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>438</v>
       </c>
-      <c r="L7" s="10">
-        <f t="shared" si="0"/>
-        <v>438</v>
+      <c r="L7" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1259,12 +1277,11 @@
       <c r="J8" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K8" s="12">
+      <c r="K8" s="11">
         <v>458.4</v>
       </c>
-      <c r="L8" s="10">
-        <f t="shared" si="0"/>
-        <v>458.4</v>
+      <c r="L8" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1272,7 +1289,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4">
         <v>64</v>
@@ -1298,12 +1315,11 @@
       <c r="J9" s="4">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K9" s="11">
+      <c r="K9" s="10">
         <v>654</v>
       </c>
-      <c r="L9" s="10">
-        <f t="shared" si="0"/>
-        <v>653.99999999999989</v>
+      <c r="L9" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1337,16 +1353,15 @@
       <c r="J10" s="6">
         <v>0</v>
       </c>
-      <c r="K10" s="12">
+      <c r="K10" s="11">
         <v>392</v>
       </c>
-      <c r="L10" s="10">
-        <f t="shared" si="0"/>
-        <v>392</v>
+      <c r="L10" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C11" s="1">
@@ -1354,39 +1369,39 @@
         <v>5840</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" ref="D11:J11" si="1">D5*20+D6*25+D7*25+D8*20+D9*60+D10*20</f>
+        <f t="shared" ref="D11:J11" si="0">D5*20+D6*25+D7*25+D8*20+D9*60+D10*20</f>
         <v>22280</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24000</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17826</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9928</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7796</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>1452</v>
       </c>
       <c r="J11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>726</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="12">
         <f>K5*20+K6*25+K7*25+K8*20+K9*60+K10*20</f>
         <v>89848</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -1394,71 +1409,71 @@
         <v>20</v>
       </c>
       <c r="C12" s="1">
-        <v>50000</v>
+        <v>41666.67</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>21</v>
+      <c r="A13" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="C13" s="1">
         <f>C11+C12</f>
-        <v>55840</v>
+        <v>47506.67</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13:J13" si="2">D11+D12</f>
+        <f t="shared" ref="D13:J13" si="1">D11+D12</f>
         <v>22280</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24000</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17826</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>9928</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>7796</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1452</v>
       </c>
       <c r="J13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>726</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="12">
         <f>SUM(C13:J13)</f>
-        <v>139848</v>
+        <v>131514.66999999998</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>22</v>
+      <c r="A14" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="B14" s="7">
         <v>0.2</v>
       </c>
-      <c r="K14" s="1">
-        <f>K13*1.2</f>
-        <v>167817.60000000001</v>
+      <c r="K14" s="12">
+        <f>ROUND(K13*1.2,2)</f>
+        <v>157817.60000000001</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C15" s="7">
         <v>0.2</v>
@@ -1475,17 +1490,70 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="C16" s="1">
+        <f>0.2*K14</f>
+        <v>31563.520000000004</v>
+      </c>
+      <c r="D16" s="1">
+        <f>0.2*K14</f>
+        <v>31563.520000000004</v>
+      </c>
+      <c r="F16" s="1">
+        <f>0.4*K14</f>
+        <v>63127.040000000008</v>
+      </c>
+      <c r="J16" s="1">
+        <f>0.2*K14</f>
+        <v>31563.520000000004</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="1">
+        <f>C16-C13</f>
+        <v>-15943.149999999994</v>
+      </c>
+      <c r="D17" s="1">
+        <f>C17+D16-D13</f>
+        <v>-6659.6299999999901</v>
+      </c>
+      <c r="E17" s="1">
+        <f>D17+E16-E13</f>
+        <v>-30659.62999999999</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" ref="F17:J17" si="2">E17+F16-F13</f>
+        <v>14641.410000000018</v>
+      </c>
+      <c r="G17" s="1">
+        <f t="shared" si="2"/>
+        <v>4713.410000000018</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" si="2"/>
+        <v>-3082.589999999982</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="2"/>
+        <v>-4534.589999999982</v>
+      </c>
+      <c r="J17" s="12">
+        <f t="shared" si="2"/>
+        <v>26302.930000000022</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="K3:K4"/>
+  <mergeCells count="5">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:J2"/>
     <mergeCell ref="A1:K1"/>
@@ -1494,7 +1562,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.8" header="0.5" footer="0.5"/>
-  <pageSetup fitToHeight="32767" orientation="landscape" errors="blank" horizontalDpi="0"/>
+  <pageSetup fitToHeight="32767" orientation="landscape" errors="blank" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter>
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>

--- a/price.xlsx
+++ b/price.xlsx
@@ -1021,7 +1021,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -1409,7 +1409,7 @@
         <v>20</v>
       </c>
       <c r="C12" s="1">
-        <v>41666.67</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -1418,7 +1418,7 @@
       </c>
       <c r="C13" s="1">
         <f>C11+C12</f>
-        <v>47506.67</v>
+        <v>45840</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ref="D13:J13" si="1">D11+D12</f>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="K13" s="12">
         <f>SUM(C13:J13)</f>
-        <v>131514.66999999998</v>
+        <v>129848</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>26</v>
@@ -1464,8 +1464,8 @@
         <v>0.2</v>
       </c>
       <c r="K14" s="12">
-        <f>ROUND(K13*1.2,2)</f>
-        <v>157817.60000000001</v>
+        <f>50000+K11*1.2</f>
+        <v>157817.59999999998</v>
       </c>
       <c r="L14" s="1" t="s">
         <v>26</v>
@@ -1494,19 +1494,19 @@
       </c>
       <c r="C16" s="1">
         <f>0.2*K14</f>
-        <v>31563.520000000004</v>
+        <v>31563.519999999997</v>
       </c>
       <c r="D16" s="1">
         <f>0.2*K14</f>
-        <v>31563.520000000004</v>
+        <v>31563.519999999997</v>
       </c>
       <c r="F16" s="1">
         <f>0.4*K14</f>
-        <v>63127.040000000008</v>
+        <v>63127.039999999994</v>
       </c>
       <c r="J16" s="1">
         <f>0.2*K14</f>
-        <v>31563.520000000004</v>
+        <v>31563.519999999997</v>
       </c>
       <c r="L16" s="1" t="s">
         <v>26</v>
@@ -1518,35 +1518,35 @@
       </c>
       <c r="C17" s="1">
         <f>C16-C13</f>
-        <v>-15943.149999999994</v>
+        <v>-14276.480000000003</v>
       </c>
       <c r="D17" s="1">
         <f>C17+D16-D13</f>
-        <v>-6659.6299999999901</v>
+        <v>-4992.9600000000064</v>
       </c>
       <c r="E17" s="1">
         <f>D17+E16-E13</f>
-        <v>-30659.62999999999</v>
+        <v>-28992.960000000006</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ref="F17:J17" si="2">E17+F16-F13</f>
-        <v>14641.410000000018</v>
+        <v>16308.079999999987</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="2"/>
-        <v>4713.410000000018</v>
+        <v>6380.0799999999872</v>
       </c>
       <c r="H17" s="1">
         <f t="shared" si="2"/>
-        <v>-3082.589999999982</v>
+        <v>-1415.9200000000128</v>
       </c>
       <c r="I17" s="1">
         <f t="shared" si="2"/>
-        <v>-4534.589999999982</v>
+        <v>-2867.9200000000128</v>
       </c>
       <c r="J17" s="12">
         <f t="shared" si="2"/>
-        <v>26302.930000000022</v>
+        <v>27969.599999999984</v>
       </c>
       <c r="L17" s="1" t="s">
         <v>26</v>

--- a/price.xlsx
+++ b/price.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t xml:space="preserve"> Recursos</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Artur José Lourenço Fonseca</t>
   </si>
   <si>
-    <t>Junior Consultant -20€</t>
-  </si>
-  <si>
     <t>BE Team Leader</t>
   </si>
   <si>
@@ -84,21 +81,12 @@
     <t>Licenses</t>
   </si>
   <si>
-    <t>Invoices %</t>
-  </si>
-  <si>
     <t xml:space="preserve">Invoices </t>
   </si>
   <si>
     <t>Cash Flow</t>
   </si>
   <si>
-    <t>Middle Consultant - 25€</t>
-  </si>
-  <si>
-    <t>Project Manager - 60€</t>
-  </si>
-  <si>
     <t>€</t>
   </si>
   <si>
@@ -117,14 +105,35 @@
     <t>Total (internal)</t>
   </si>
   <si>
-    <t>Price (client)</t>
+    <t>Invoices % total price</t>
+  </si>
+  <si>
+    <t>Junior Consultant 20€</t>
+  </si>
+  <si>
+    <t>Middle Consultant  25€</t>
+  </si>
+  <si>
+    <t>Project Manager  60€</t>
+  </si>
+  <si>
+    <t>Risk management</t>
+  </si>
+  <si>
+    <t>Transports/Accomodation</t>
+  </si>
+  <si>
+    <t>Printing materials</t>
+  </si>
+  <si>
+    <t>Labour + Comission</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -277,6 +286,11 @@
       <b/>
       <sz val="10"/>
       <name val="arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -650,7 +664,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -688,11 +702,32 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1018,59 +1053,61 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" style="1" customWidth="1"/>
-    <col min="3" max="10" width="19" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="23.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="1" customWidth="1"/>
+    <col min="3" max="11" width="11.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.85546875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="38.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
+      <c r="A1" s="19"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13" t="s">
+      <c r="C2" s="18">
+        <v>2015</v>
+      </c>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
       <c r="K2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="8"/>
     </row>
     <row r="3" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1096,48 +1133,48 @@
         <v>11</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L3" s="8"/>
     </row>
     <row r="4" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="K4" s="8"/>
       <c r="L4" s="8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
+      <c r="B5" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="C5" s="4">
         <v>0</v>
@@ -1167,15 +1204,15 @@
         <v>388</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>24</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>30</v>
       </c>
       <c r="C6" s="6">
         <v>64</v>
@@ -1205,15 +1242,15 @@
         <v>595.6</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="C7" s="4">
         <v>16</v>
@@ -1243,15 +1280,15 @@
         <v>438</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="C8" s="6">
         <v>0</v>
@@ -1281,15 +1318,15 @@
         <v>458.4</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>31</v>
       </c>
       <c r="C9" s="4">
         <v>64</v>
@@ -1319,15 +1356,15 @@
         <v>654</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
@@ -1357,199 +1394,332 @@
         <v>392</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="1">
+        <v>18</v>
+      </c>
+      <c r="C11" s="15">
         <f>C5*20+C6*25+C7*25+C8*20+C9*60+C10*20</f>
         <v>5840</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="15">
         <f t="shared" ref="D11:J11" si="0">D5*20+D6*25+D7*25+D8*20+D9*60+D10*20</f>
         <v>22280</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="15">
         <f t="shared" si="0"/>
         <v>24000</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="15">
         <f t="shared" si="0"/>
         <v>17826</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="15">
         <f t="shared" si="0"/>
         <v>9928</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H11" s="15">
         <f t="shared" si="0"/>
         <v>7796</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11" s="15">
         <f t="shared" si="0"/>
         <v>1452</v>
       </c>
-      <c r="J11" s="1">
+      <c r="J11" s="15">
         <f t="shared" si="0"/>
         <v>726</v>
       </c>
-      <c r="K11" s="12">
+      <c r="K11" s="16">
         <f>K5*20+K6*25+K7*25+K8*20+K9*60+K10*20</f>
         <v>89848</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="15">
+        <v>400</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15">
+        <v>3000</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15">
+        <v>200</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15">
+        <v>1200</v>
+      </c>
+      <c r="K12" s="21">
+        <f t="shared" ref="K12:K14" si="1">SUM(C12:J12)</f>
+        <v>4800</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="15">
+        <v>40000</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="21">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+      <c r="L13" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15">
+        <v>500</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="21">
+        <f t="shared" si="1"/>
+        <v>500</v>
+      </c>
+      <c r="L14" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="15">
+        <f>SUM(C11:C14)</f>
+        <v>46240</v>
+      </c>
+      <c r="D15" s="15">
+        <f t="shared" ref="D15:J15" si="2">SUM(D11:D14)</f>
+        <v>22280</v>
+      </c>
+      <c r="E15" s="15">
+        <f t="shared" si="2"/>
+        <v>24000</v>
+      </c>
+      <c r="F15" s="15">
+        <f t="shared" si="2"/>
+        <v>21326</v>
+      </c>
+      <c r="G15" s="15">
+        <f t="shared" si="2"/>
+        <v>9928</v>
+      </c>
+      <c r="H15" s="15">
+        <f t="shared" si="2"/>
+        <v>7996</v>
+      </c>
+      <c r="I15" s="15">
+        <f t="shared" si="2"/>
+        <v>1452</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="2"/>
+        <v>1926</v>
+      </c>
+      <c r="K15" s="16">
+        <f>SUM(C15:J15)</f>
+        <v>135148</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="16"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="16"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0.2</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="16">
+        <f>K11*1.2</f>
+        <v>107817.59999999999</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="15">
+        <v>100000</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="17">
+        <v>0.4</v>
+      </c>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="K20" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1">
-        <f>C11+C12</f>
-        <v>45840</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" ref="D13:J13" si="1">D11+D12</f>
-        <v>22280</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>24000</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="1"/>
-        <v>17826</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="1"/>
-        <v>9928</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" si="1"/>
-        <v>7796</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" si="1"/>
-        <v>1452</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="1"/>
-        <v>726</v>
-      </c>
-      <c r="K13" s="12">
-        <f>SUM(C13:J13)</f>
-        <v>129848</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="K14" s="12">
-        <f>50000+K11*1.2</f>
-        <v>157817.59999999998</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="C21" s="15">
+        <f>0.2*K21</f>
+        <v>52623.519999999997</v>
+      </c>
+      <c r="D21" s="15">
+        <f>0.2*K21</f>
+        <v>52623.519999999997</v>
+      </c>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15">
+        <f>0.4*K21</f>
+        <v>105247.03999999999</v>
+      </c>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15">
+        <f>0.2*K21</f>
+        <v>52623.519999999997</v>
+      </c>
+      <c r="K21" s="16">
+        <f>50000+K18+K12+K14+K19</f>
+        <v>263117.59999999998</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="J15" s="7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="C22" s="15">
+        <f>C21-C15</f>
+        <v>6383.5199999999968</v>
+      </c>
+      <c r="D22" s="15">
+        <f>C22+D21-D15</f>
+        <v>36727.039999999994</v>
+      </c>
+      <c r="E22" s="15">
+        <f>D22+E21-E15</f>
+        <v>12727.039999999994</v>
+      </c>
+      <c r="F22" s="15">
+        <f>E22+F21-F15</f>
+        <v>96648.079999999987</v>
+      </c>
+      <c r="G22" s="15">
+        <f>F22+G21-G15</f>
+        <v>86720.079999999987</v>
+      </c>
+      <c r="H22" s="15">
+        <f>G22+H21-H15</f>
+        <v>78724.079999999987</v>
+      </c>
+      <c r="I22" s="15">
+        <f>H22+I21-I15</f>
+        <v>77272.079999999987</v>
+      </c>
+      <c r="J22" s="16">
+        <f>I22+J21-J15</f>
+        <v>127969.59999999998</v>
+      </c>
+      <c r="K22" s="15"/>
+      <c r="L22" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="C16" s="1">
-        <f>0.2*K14</f>
-        <v>31563.519999999997</v>
-      </c>
-      <c r="D16" s="1">
-        <f>0.2*K14</f>
-        <v>31563.519999999997</v>
-      </c>
-      <c r="F16" s="1">
-        <f>0.4*K14</f>
-        <v>63127.039999999994</v>
-      </c>
-      <c r="J16" s="1">
-        <f>0.2*K14</f>
-        <v>31563.519999999997</v>
-      </c>
-      <c r="L16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="1">
-        <f>C16-C13</f>
-        <v>-14276.480000000003</v>
-      </c>
-      <c r="D17" s="1">
-        <f>C17+D16-D13</f>
-        <v>-4992.9600000000064</v>
-      </c>
-      <c r="E17" s="1">
-        <f>D17+E16-E13</f>
-        <v>-28992.960000000006</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" ref="F17:J17" si="2">E17+F16-F13</f>
-        <v>16308.079999999987</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="2"/>
-        <v>6380.0799999999872</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="2"/>
-        <v>-1415.9200000000128</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="2"/>
-        <v>-2867.9200000000128</v>
-      </c>
-      <c r="J17" s="12">
-        <f t="shared" si="2"/>
-        <v>27969.599999999984</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
